--- a/仕様書/マップ.xlsx
+++ b/仕様書/マップ.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>マップの仕様</t>
     <rPh sb="4" eb="6">
@@ -107,6 +107,16 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>プレイヤーの見える視界</t>
+    <rPh sb="6" eb="7">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1030,7 +1040,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1734,6 +1747,55 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>638735</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="28" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7720853" y="1792941"/>
+          <a:ext cx="2577353" cy="11206"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2002,10 +2064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2013,47 +2075,50 @@
     <col min="1" max="1" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="N7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/仕様書/マップ.xlsx
+++ b/仕様書/マップ.xlsx
@@ -2067,7 +2067,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
